--- a/downloads/Pool-B-Groups-Bonus.xlsx
+++ b/downloads/Pool-B-Groups-Bonus.xlsx
@@ -5,10 +5,9 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bob\Desktop\euro2024\-Predictor files to send out-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bob\Desktop\euro2024\nunosoccerpool.github.io\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookPassword="B93B" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" tabRatio="500" firstSheet="3" activeTab="3"/>
   </bookViews>
@@ -12219,19 +12218,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
@@ -12247,43 +12251,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
@@ -12298,6 +12266,37 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -15671,170 +15670,185 @@
       <sheetName val="POINTSYSTEM"/>
       <sheetName val="STATS"/>
       <sheetName val="Nuno"/>
-      <sheetName val="Aban"/>
-      <sheetName val="AdamC"/>
-      <sheetName val="Alex"/>
-      <sheetName val="Alma"/>
-      <sheetName val="Andre"/>
-      <sheetName val="AndrewS"/>
-      <sheetName val="Angelo"/>
-      <sheetName val="Antonio"/>
-      <sheetName val="Arturo"/>
+      <sheetName val="Aaron"/>
+      <sheetName val="Adam"/>
+      <sheetName val="Alexei"/>
+      <sheetName val="Alice"/>
+      <sheetName val="Angel"/>
+      <sheetName val="AnthonyD"/>
+      <sheetName val="AnthonyV"/>
+      <sheetName val="Ash"/>
       <sheetName val="Atish"/>
-      <sheetName val="Bahar"/>
+      <sheetName val="Augie"/>
       <sheetName val="Bert"/>
-      <sheetName val="Bird"/>
       <sheetName val="Brendan"/>
-      <sheetName val="Cameron"/>
-      <sheetName val="CarlosS1"/>
-      <sheetName val="CarlosS2"/>
-      <sheetName val="CarlosS3"/>
+      <sheetName val="BrianB"/>
+      <sheetName val="Carlos"/>
+      <sheetName val="Carmen"/>
       <sheetName val="Caroline"/>
       <sheetName val="ChrisK"/>
       <sheetName val="ChrisP"/>
       <sheetName val="Chrissy"/>
+      <sheetName val="CMD88"/>
       <sheetName val="Corey"/>
+      <sheetName val="Cristian"/>
       <sheetName val="Cristina"/>
-      <sheetName val="Cuevas"/>
       <sheetName val="Daisy"/>
-      <sheetName val="Damian"/>
-      <sheetName val="DanL"/>
-      <sheetName val="Danny1"/>
-      <sheetName val="Danny2"/>
+      <sheetName val="DanielR"/>
+      <sheetName val="DannyL"/>
+      <sheetName val="DannyRa"/>
+      <sheetName val="Darryll"/>
       <sheetName val="Daryl"/>
-      <sheetName val="David"/>
-      <sheetName val="Decio"/>
+      <sheetName val="Dashiel"/>
+      <sheetName val="DavidD"/>
       <sheetName val="Derek"/>
-      <sheetName val="Devils"/>
-      <sheetName val="Dom"/>
-      <sheetName val="DougM"/>
-      <sheetName val="Echeta"/>
-      <sheetName val="Eddy"/>
+      <sheetName val="Deylin"/>
+      <sheetName val="DinoD"/>
+      <sheetName val="Dragon"/>
+      <sheetName val="Duarte"/>
       <sheetName val="Edsel"/>
       <sheetName val="Eduardo"/>
+      <sheetName val="EdwardL"/>
       <sheetName val="EdwardT"/>
-      <sheetName val="Elaine"/>
       <sheetName val="Elizabeth"/>
-      <sheetName val="Eoin"/>
-      <sheetName val="Erica"/>
-      <sheetName val="EricK"/>
       <sheetName val="Fawzi"/>
       <sheetName val="Fernando"/>
       <sheetName val="Forbes"/>
       <sheetName val="Franco"/>
       <sheetName val="FrankC"/>
       <sheetName val="FrankD"/>
-      <sheetName val="FrankI"/>
       <sheetName val="Gabriela"/>
-      <sheetName val="Gannicus"/>
-      <sheetName val="Gary1"/>
-      <sheetName val="Gary2"/>
-      <sheetName val="Gio"/>
+      <sheetName val="Gary"/>
+      <sheetName val="GavinH"/>
+      <sheetName val="GavinW"/>
       <sheetName val="Greg"/>
       <sheetName val="Grosso"/>
-      <sheetName val="HelderA"/>
-      <sheetName val="HelderF"/>
-      <sheetName val="Helio"/>
+      <sheetName val="Gus"/>
+      <sheetName val="Gustavo"/>
+      <sheetName val="Heather"/>
+      <sheetName val="Helder"/>
       <sheetName val="Hernani"/>
       <sheetName val="Hugo"/>
+      <sheetName val="Ian"/>
       <sheetName val="Igor"/>
       <sheetName val="Ishaque"/>
       <sheetName val="James"/>
       <sheetName val="Janelle"/>
-      <sheetName val="JeffC"/>
-      <sheetName val="JeffB"/>
-      <sheetName val="JeffG"/>
+      <sheetName val="JeanMichel"/>
+      <sheetName val="Jeannette"/>
+      <sheetName val="JeffBe"/>
+      <sheetName val="JeffBo"/>
       <sheetName val="JeffS"/>
-      <sheetName val="JeffT"/>
+      <sheetName val="Jenn"/>
       <sheetName val="Joanna"/>
-      <sheetName val="JoeD"/>
-      <sheetName val="JohnP"/>
+      <sheetName val="Joao"/>
+      <sheetName val="JoeA"/>
+      <sheetName val="JohnC"/>
       <sheetName val="JohnR"/>
-      <sheetName val="Jorge"/>
-      <sheetName val="Joshua"/>
+      <sheetName val="Jonathan"/>
+      <sheetName val="JorgeC"/>
+      <sheetName val="JorgeT"/>
+      <sheetName val="JoseP"/>
+      <sheetName val="Julian"/>
+      <sheetName val="JustinL"/>
+      <sheetName val="Kasra"/>
       <sheetName val="KevinJ"/>
-      <sheetName val="KevinS"/>
-      <sheetName val="Krhazy"/>
       <sheetName val="Kristian"/>
-      <sheetName val="Kyle"/>
+      <sheetName val="Luigi"/>
       <sheetName val="Magno"/>
       <sheetName val="Major"/>
+      <sheetName val="MannyA"/>
+      <sheetName val="MannyT"/>
       <sheetName val="Marcio"/>
-      <sheetName val="MarcoC"/>
-      <sheetName val="MarcoI"/>
-      <sheetName val="Marcos"/>
-      <sheetName val="MariaF"/>
-      <sheetName val="MariaL"/>
+      <sheetName val="Marco"/>
+      <sheetName val="Maria"/>
       <sheetName val="Marta"/>
-      <sheetName val="Mauchline"/>
-      <sheetName val="MichaelL"/>
+      <sheetName val="MatthewG"/>
+      <sheetName val="MatthewS"/>
+      <sheetName val="Mauricio"/>
       <sheetName val="MichaelP"/>
-      <sheetName val="Michele"/>
       <sheetName val="Michiel"/>
       <sheetName val="MikeD"/>
       <sheetName val="Mitchell"/>
-      <sheetName val="Nancy"/>
-      <sheetName val="Nas"/>
-      <sheetName val="Nelson"/>
+      <sheetName val="Mugwe"/>
+      <sheetName val="NicholasN"/>
+      <sheetName val="NickM"/>
       <sheetName val="Nicole"/>
-      <sheetName val="Noelle"/>
       <sheetName val="Paola"/>
       <sheetName val="Paolo"/>
+      <sheetName val="Pardeep"/>
       <sheetName val="Pascal"/>
-      <sheetName val="PaulC"/>
+      <sheetName val="Paul"/>
+      <sheetName val="Pedro"/>
       <sheetName val="PeterM"/>
       <sheetName val="PeterS"/>
-      <sheetName val="Preto1"/>
-      <sheetName val="Preto2"/>
-      <sheetName val="RichardM"/>
+      <sheetName val="RD2024"/>
+      <sheetName val="Ricardo"/>
+      <sheetName val="RichardMa"/>
+      <sheetName val="RichardMo"/>
       <sheetName val="Rick"/>
       <sheetName val="Riyad"/>
+      <sheetName val="RobertP"/>
       <sheetName val="RobertS"/>
-      <sheetName val="RobT"/>
+      <sheetName val="RobSi"/>
+      <sheetName val="RobTa"/>
+      <sheetName val="RobTu"/>
+      <sheetName val="RobV"/>
       <sheetName val="RobW"/>
       <sheetName val="Rodrigo"/>
-      <sheetName val="Roger"/>
-      <sheetName val="Rudy"/>
-      <sheetName val="RyanM"/>
-      <sheetName val="RyanO"/>
+      <sheetName val="Sam"/>
       <sheetName val="Santiago"/>
-      <sheetName val="Santos"/>
-      <sheetName val="Satvir"/>
-      <sheetName val="Scotty1"/>
-      <sheetName val="Scotty2"/>
-      <sheetName val="SCP"/>
-      <sheetName val="SeanB"/>
-      <sheetName val="SeanH"/>
-      <sheetName val="Seconda"/>
-      <sheetName val="Sergio"/>
+      <sheetName val="Scotty"/>
+      <sheetName val="Sean"/>
       <sheetName val="Shawn"/>
+      <sheetName val="SimonC"/>
+      <sheetName val="Simone"/>
       <sheetName val="SimonS"/>
-      <sheetName val="Siobhan"/>
       <sheetName val="Stallone"/>
-      <sheetName val="SteveC"/>
+      <sheetName val="Stanley"/>
+      <sheetName val="SteveB"/>
       <sheetName val="StevenD"/>
-      <sheetName val="StevenG"/>
-      <sheetName val="Tanya"/>
-      <sheetName val="TeamNacho"/>
-      <sheetName val="Teresa"/>
       <sheetName val="TomI"/>
       <sheetName val="TonyH"/>
-      <sheetName val="TonyM"/>
+      <sheetName val="TonyS"/>
       <sheetName val="Trevor"/>
-      <sheetName val="Tundy"/>
+      <sheetName val="Tristan"/>
       <sheetName val="Tyrone"/>
       <sheetName val="Vicki"/>
+      <sheetName val="Victor"/>
       <sheetName val="VinayS"/>
       <sheetName val="VinayV"/>
+      <sheetName val="Vince"/>
+      <sheetName val="Vishal"/>
       <sheetName val="Vito"/>
       <sheetName val="Wilson"/>
-      <sheetName val="Yawning"/>
-      <sheetName val="Rachel"/>
-      <sheetName val="Alfredo"/>
-      <sheetName val="Alice"/>
-      <sheetName val="Heather"/>
-      <sheetName val="DevilsKid"/>
-      <sheetName val="Gustavo"/>
+      <sheetName val="Yogi"/>
+      <sheetName val="Zachary"/>
+      <sheetName val="LiamM"/>
+      <sheetName val="Luka"/>
+      <sheetName val="Teresa"/>
+      <sheetName val="TomP"/>
+      <sheetName val="DanielA"/>
+      <sheetName val="Rocco"/>
+      <sheetName val="ChrisN"/>
+      <sheetName val="EricK"/>
+      <sheetName val="Timo"/>
+      <sheetName val="JoeD"/>
+      <sheetName val="EddyM"/>
+      <sheetName val="Kumar"/>
+      <sheetName val="KevinS"/>
+      <sheetName val="SteveR"/>
+      <sheetName val="Jerry"/>
+      <sheetName val="Neha"/>
+      <sheetName val="JohnO"/>
+      <sheetName val="Jay"/>
+      <sheetName val="Smiffy"/>
+      <sheetName val="Jubin"/>
+      <sheetName val="Monticcilo"/>
+      <sheetName val="Jenny"/>
+      <sheetName val="Kayden"/>
+      <sheetName val="Nuno (174)"/>
+      <sheetName val="Nuno (6)"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -16026,6 +16040,21 @@
       <sheetData sheetId="170"/>
       <sheetData sheetId="171"/>
       <sheetData sheetId="172"/>
+      <sheetData sheetId="173"/>
+      <sheetData sheetId="174"/>
+      <sheetData sheetId="175"/>
+      <sheetData sheetId="176"/>
+      <sheetData sheetId="177"/>
+      <sheetData sheetId="178"/>
+      <sheetData sheetId="179"/>
+      <sheetData sheetId="180"/>
+      <sheetData sheetId="181"/>
+      <sheetData sheetId="182"/>
+      <sheetData sheetId="183"/>
+      <sheetData sheetId="184"/>
+      <sheetData sheetId="185"/>
+      <sheetData sheetId="186"/>
+      <sheetData sheetId="187"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -31672,30 +31701,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:152" ht="30" customHeight="1">
-      <c r="A1" s="176" t="str">
+      <c r="A1" s="178" t="str">
         <f>INDEX(T,2,lang)</f>
         <v>UEFA EURO 2024 Tournament Schedule</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
       <c r="X1" s="65"/>
       <c r="Y1" s="65"/>
       <c r="Z1" s="65"/>
@@ -31958,8 +31987,8 @@
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
-      <c r="T6" s="177"/>
-      <c r="U6" s="177"/>
+      <c r="T6" s="179"/>
+      <c r="U6" s="179"/>
       <c r="W6" s="65" t="s">
         <v>2540</v>
       </c>
@@ -32070,7 +32099,7 @@
       <c r="EQ6" s="68"/>
       <c r="ER6" s="68"/>
       <c r="ES6" s="68"/>
-      <c r="EV6" s="178"/>
+      <c r="EV6" s="180"/>
     </row>
     <row r="7" spans="1:152" ht="4.5" customHeight="1">
       <c r="W7" s="65">
@@ -32217,23 +32246,23 @@
       <c r="EF7" s="66"/>
       <c r="EG7" s="66"/>
       <c r="EH7" s="66"/>
-      <c r="EV7" s="178"/>
+      <c r="EV7" s="180"/>
     </row>
     <row r="8" spans="1:152" ht="12.75" customHeight="1">
-      <c r="A8" s="172" t="str">
+      <c r="A8" s="176" t="str">
         <f>INDEX(T,3,lang)</f>
         <v>Group Stage</v>
       </c>
-      <c r="B8" s="172"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="172"/>
-      <c r="H8" s="172"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="172"/>
+      <c r="B8" s="176"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="176"/>
+      <c r="I8" s="176"/>
+      <c r="J8" s="176"/>
+      <c r="K8" s="176"/>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
       <c r="O8" s="30" t="str">
@@ -32706,17 +32735,17 @@
       </c>
     </row>
     <row r="9" spans="1:152" ht="12.75" customHeight="1">
-      <c r="A9" s="172"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
+      <c r="A9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="176"/>
+      <c r="K9" s="176"/>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
       <c r="O9" s="32" t="str">
@@ -33214,12 +33243,12 @@
         <f>BD9</f>
         <v>Scotland</v>
       </c>
-      <c r="I10" s="173" t="str">
+      <c r="I10" s="177" t="str">
         <f>INDEX(T,103,lang)</f>
         <v>Munich</v>
       </c>
-      <c r="J10" s="173"/>
-      <c r="K10" s="173"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="177"/>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
       <c r="O10" s="43" t="str">
@@ -33690,7 +33719,7 @@
         <f>SUM(EP10:ES10)</f>
         <v>0</v>
       </c>
-      <c r="EV10" s="174"/>
+      <c r="EV10" s="175"/>
     </row>
     <row r="11" spans="1:152">
       <c r="A11" s="46">
@@ -33718,12 +33747,12 @@
         <f>BD10</f>
         <v>Switzerland</v>
       </c>
-      <c r="I11" s="175" t="str">
+      <c r="I11" s="172" t="str">
         <f>INDEX(T,104,lang)</f>
         <v>Cologne</v>
       </c>
-      <c r="J11" s="175"/>
-      <c r="K11" s="175"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="172"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
       <c r="O11" s="43" t="str">
@@ -34190,7 +34219,7 @@
         <f>SUM(EP11:ES11)</f>
         <v>0</v>
       </c>
-      <c r="EV11" s="174"/>
+      <c r="EV11" s="175"/>
     </row>
     <row r="12" spans="1:152">
       <c r="A12" s="46">
@@ -34218,12 +34247,12 @@
         <f>BD16</f>
         <v>Croatia</v>
       </c>
-      <c r="I12" s="175" t="str">
+      <c r="I12" s="172" t="str">
         <f>INDEX(T,107,lang)</f>
         <v>Berlin</v>
       </c>
-      <c r="J12" s="175"/>
-      <c r="K12" s="175"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="172"/>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
       <c r="O12" s="54" t="str">
@@ -34529,12 +34558,12 @@
         <f>BD17</f>
         <v>Albania</v>
       </c>
-      <c r="I13" s="175" t="str">
+      <c r="I13" s="172" t="str">
         <f>INDEX(T,108,lang)</f>
         <v>Dortmund</v>
       </c>
-      <c r="J13" s="175"/>
-      <c r="K13" s="175"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="172"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
       <c r="W13" s="65">
@@ -34696,12 +34725,12 @@
         <f>BD27</f>
         <v>Netherlands</v>
       </c>
-      <c r="I14" s="175" t="str">
+      <c r="I14" s="172" t="str">
         <f>INDEX(T,109,lang)</f>
         <v>Hamburg</v>
       </c>
-      <c r="J14" s="175"/>
-      <c r="K14" s="175"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="172"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
       <c r="O14" s="30" t="str">
@@ -35168,7 +35197,7 @@
         <f>SUM(EP14:ES14)</f>
         <v>0</v>
       </c>
-      <c r="EV14" s="174"/>
+      <c r="EV14" s="175"/>
     </row>
     <row r="15" spans="1:152">
       <c r="A15" s="46">
@@ -35196,12 +35225,12 @@
         <f>BD21</f>
         <v>Denmark</v>
       </c>
-      <c r="I15" s="175" t="str">
+      <c r="I15" s="172" t="str">
         <f>INDEX(T,105,lang)</f>
         <v>Stuttgart</v>
       </c>
-      <c r="J15" s="175"/>
-      <c r="K15" s="175"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="172"/>
       <c r="L15" s="57"/>
       <c r="M15" s="57"/>
       <c r="O15" s="32" t="str">
@@ -35668,7 +35697,7 @@
         <f>SUM(EP15:ES15)</f>
         <v>0</v>
       </c>
-      <c r="EV15" s="174"/>
+      <c r="EV15" s="175"/>
     </row>
     <row r="16" spans="1:152">
       <c r="A16" s="46">
@@ -35696,12 +35725,12 @@
         <f>BD20</f>
         <v>England</v>
       </c>
-      <c r="I16" s="175" t="str">
+      <c r="I16" s="172" t="str">
         <f>INDEX(T,110,lang)</f>
         <v>Gelsenkirchen</v>
       </c>
-      <c r="J16" s="175"/>
-      <c r="K16" s="175"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="172"/>
       <c r="L16" s="57"/>
       <c r="M16" s="57"/>
       <c r="O16" s="43" t="str">
@@ -36195,12 +36224,12 @@
         <f>BD33</f>
         <v>Ukraine</v>
       </c>
-      <c r="I17" s="175" t="str">
+      <c r="I17" s="172" t="str">
         <f>INDEX(T,103,lang)</f>
         <v>Munich</v>
       </c>
-      <c r="J17" s="175"/>
-      <c r="K17" s="175"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="172"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
       <c r="O17" s="43" t="str">
@@ -36690,12 +36719,12 @@
         <f>BD35</f>
         <v>Slovakia</v>
       </c>
-      <c r="I18" s="175" t="str">
+      <c r="I18" s="172" t="str">
         <f>INDEX(T,106,lang)</f>
         <v>Frankfurt</v>
       </c>
-      <c r="J18" s="175"/>
-      <c r="K18" s="175"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
       <c r="O18" s="54" t="str">
@@ -36974,7 +37003,7 @@
         <f>EI17</f>
         <v>0</v>
       </c>
-      <c r="EV18" s="174"/>
+      <c r="EV18" s="175"/>
     </row>
     <row r="19" spans="1:152">
       <c r="A19" s="46">
@@ -37002,12 +37031,12 @@
         <f>BD26</f>
         <v>France</v>
       </c>
-      <c r="I19" s="175" t="str">
+      <c r="I19" s="172" t="str">
         <f>INDEX(T,111,lang)</f>
         <v>Düsseldorf</v>
       </c>
-      <c r="J19" s="175"/>
-      <c r="K19" s="175"/>
+      <c r="J19" s="172"/>
+      <c r="K19" s="172"/>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
       <c r="W19" s="65">
@@ -37142,7 +37171,7 @@
       <c r="CA19" s="66">
         <v>4</v>
       </c>
-      <c r="EV19" s="174"/>
+      <c r="EV19" s="175"/>
     </row>
     <row r="20" spans="1:152">
       <c r="A20" s="46">
@@ -37170,12 +37199,12 @@
         <f>BD41</f>
         <v>Georgia</v>
       </c>
-      <c r="I20" s="175" t="str">
+      <c r="I20" s="172" t="str">
         <f>INDEX(T,108,lang)</f>
         <v>Dortmund</v>
       </c>
-      <c r="J20" s="175"/>
-      <c r="K20" s="175"/>
+      <c r="J20" s="172"/>
+      <c r="K20" s="172"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
       <c r="O20" s="30" t="str">
@@ -37669,12 +37698,12 @@
         <f>BD40</f>
         <v>Czech Republic</v>
       </c>
-      <c r="I21" s="175" t="str">
+      <c r="I21" s="172" t="str">
         <f>INDEX(T,112,lang)</f>
         <v>Leipzig</v>
       </c>
-      <c r="J21" s="175"/>
-      <c r="K21" s="175"/>
+      <c r="J21" s="172"/>
+      <c r="K21" s="172"/>
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
       <c r="O21" s="32" t="str">
@@ -38168,12 +38197,12 @@
         <f>BD17</f>
         <v>Albania</v>
       </c>
-      <c r="I22" s="175" t="str">
+      <c r="I22" s="172" t="str">
         <f>INDEX(T,109,lang)</f>
         <v>Hamburg</v>
       </c>
-      <c r="J22" s="175"/>
-      <c r="K22" s="175"/>
+      <c r="J22" s="172"/>
+      <c r="K22" s="172"/>
       <c r="L22" s="57"/>
       <c r="M22" s="57"/>
       <c r="O22" s="43" t="str">
@@ -38640,7 +38669,7 @@
         <f>SUM(EP22:ES22)</f>
         <v>0</v>
       </c>
-      <c r="EV22" s="174"/>
+      <c r="EV22" s="175"/>
     </row>
     <row r="23" spans="1:152">
       <c r="A23" s="46">
@@ -38668,12 +38697,12 @@
         <f>BD11</f>
         <v>Hungary</v>
       </c>
-      <c r="I23" s="175" t="str">
+      <c r="I23" s="172" t="str">
         <f>INDEX(T,105,lang)</f>
         <v>Stuttgart</v>
       </c>
-      <c r="J23" s="175"/>
-      <c r="K23" s="175"/>
+      <c r="J23" s="172"/>
+      <c r="K23" s="172"/>
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
       <c r="O23" s="43" t="str">
@@ -39136,7 +39165,7 @@
         <f>SUM(EP23:ES23)</f>
         <v>0</v>
       </c>
-      <c r="EV23" s="174"/>
+      <c r="EV23" s="175"/>
     </row>
     <row r="24" spans="1:152">
       <c r="A24" s="46">
@@ -39164,12 +39193,12 @@
         <f>BD10</f>
         <v>Switzerland</v>
       </c>
-      <c r="I24" s="175" t="str">
+      <c r="I24" s="172" t="str">
         <f>INDEX(T,104,lang)</f>
         <v>Cologne</v>
       </c>
-      <c r="J24" s="175"/>
-      <c r="K24" s="175"/>
+      <c r="J24" s="172"/>
+      <c r="K24" s="172"/>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
       <c r="O24" s="54" t="str">
@@ -39475,12 +39504,12 @@
         <f>BD22</f>
         <v>Serbia</v>
       </c>
-      <c r="I25" s="175" t="str">
+      <c r="I25" s="172" t="str">
         <f>INDEX(T,103,lang)</f>
         <v>Munich</v>
       </c>
-      <c r="J25" s="175"/>
-      <c r="K25" s="175"/>
+      <c r="J25" s="172"/>
+      <c r="K25" s="172"/>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
       <c r="W25" s="65">
@@ -39642,12 +39671,12 @@
         <f>BD20</f>
         <v>England</v>
       </c>
-      <c r="I26" s="175" t="str">
+      <c r="I26" s="172" t="str">
         <f>INDEX(T,106,lang)</f>
         <v>Frankfurt</v>
       </c>
-      <c r="J26" s="175"/>
-      <c r="K26" s="175"/>
+      <c r="J26" s="172"/>
+      <c r="K26" s="172"/>
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
       <c r="O26" s="30" t="str">
@@ -40114,7 +40143,7 @@
         <f>SUM(EP26:ES26)</f>
         <v>0</v>
       </c>
-      <c r="EV26" s="174"/>
+      <c r="EV26" s="175"/>
     </row>
     <row r="27" spans="1:152">
       <c r="A27" s="46">
@@ -40142,12 +40171,12 @@
         <f>BD15</f>
         <v>Italy</v>
       </c>
-      <c r="I27" s="175" t="str">
+      <c r="I27" s="172" t="str">
         <f>INDEX(T,110,lang)</f>
         <v>Gelsenkirchen</v>
       </c>
-      <c r="J27" s="175"/>
-      <c r="K27" s="175"/>
+      <c r="J27" s="172"/>
+      <c r="K27" s="172"/>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
       <c r="O27" s="32" t="str">
@@ -40614,7 +40643,7 @@
         <f>SUM(EP27:ES27)</f>
         <v>0</v>
       </c>
-      <c r="EV27" s="174"/>
+      <c r="EV27" s="175"/>
     </row>
     <row r="28" spans="1:152">
       <c r="A28" s="46">
@@ -40642,12 +40671,12 @@
         <f>BD33</f>
         <v>Ukraine</v>
       </c>
-      <c r="I28" s="175" t="str">
+      <c r="I28" s="172" t="str">
         <f>INDEX(T,111,lang)</f>
         <v>Düsseldorf</v>
       </c>
-      <c r="J28" s="175"/>
-      <c r="K28" s="175"/>
+      <c r="J28" s="172"/>
+      <c r="K28" s="172"/>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
       <c r="O28" s="43" t="str">
@@ -41141,12 +41170,12 @@
         <f>BD28</f>
         <v>Austria</v>
       </c>
-      <c r="I29" s="175" t="str">
+      <c r="I29" s="172" t="str">
         <f>INDEX(T,107,lang)</f>
         <v>Berlin</v>
       </c>
-      <c r="J29" s="175"/>
-      <c r="K29" s="175"/>
+      <c r="J29" s="172"/>
+      <c r="K29" s="172"/>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
       <c r="O29" s="43" t="str">
@@ -41636,12 +41665,12 @@
         <f>BD26</f>
         <v>France</v>
       </c>
-      <c r="I30" s="175" t="str">
+      <c r="I30" s="172" t="str">
         <f>INDEX(T,112,lang)</f>
         <v>Leipzig</v>
       </c>
-      <c r="J30" s="175"/>
-      <c r="K30" s="175"/>
+      <c r="J30" s="172"/>
+      <c r="K30" s="172"/>
       <c r="L30" s="57"/>
       <c r="M30" s="57"/>
       <c r="O30" s="54" t="str">
@@ -41924,7 +41953,7 @@
         <f>EI29</f>
         <v>0</v>
       </c>
-      <c r="EV30" s="174"/>
+      <c r="EV30" s="175"/>
     </row>
     <row r="31" spans="1:152" ht="12.75" customHeight="1">
       <c r="A31" s="46">
@@ -41952,12 +41981,12 @@
         <f>BD40</f>
         <v>Czech Republic</v>
       </c>
-      <c r="I31" s="175" t="str">
+      <c r="I31" s="172" t="str">
         <f>INDEX(T,109,lang)</f>
         <v>Hamburg</v>
       </c>
-      <c r="J31" s="175"/>
-      <c r="K31" s="175"/>
+      <c r="J31" s="172"/>
+      <c r="K31" s="172"/>
       <c r="L31" s="29"/>
       <c r="M31" s="29"/>
       <c r="W31" s="65">
@@ -42092,7 +42121,7 @@
       <c r="CA31" s="66">
         <v>4</v>
       </c>
-      <c r="EV31" s="174"/>
+      <c r="EV31" s="175"/>
     </row>
     <row r="32" spans="1:152" ht="12.75" customHeight="1">
       <c r="A32" s="46">
@@ -42120,12 +42149,12 @@
         <f>BD38</f>
         <v>Portugal</v>
       </c>
-      <c r="I32" s="175" t="str">
+      <c r="I32" s="172" t="str">
         <f>INDEX(T,108,lang)</f>
         <v>Dortmund</v>
       </c>
-      <c r="J32" s="175"/>
-      <c r="K32" s="175"/>
+      <c r="J32" s="172"/>
+      <c r="K32" s="172"/>
       <c r="L32" s="29"/>
       <c r="M32" s="29"/>
       <c r="O32" s="30" t="str">
@@ -42609,12 +42638,12 @@
         <f>BD34</f>
         <v>Romania</v>
       </c>
-      <c r="I33" s="175" t="str">
+      <c r="I33" s="172" t="str">
         <f>INDEX(T,104,lang)</f>
         <v>Cologne</v>
       </c>
-      <c r="J33" s="175"/>
-      <c r="K33" s="175"/>
+      <c r="J33" s="172"/>
+      <c r="K33" s="172"/>
       <c r="L33" s="29"/>
       <c r="M33" s="29"/>
       <c r="O33" s="32" t="str">
@@ -43098,12 +43127,12 @@
         <f>BD8</f>
         <v>Germany</v>
       </c>
-      <c r="I34" s="175" t="str">
+      <c r="I34" s="172" t="str">
         <f>INDEX(T,106,lang)</f>
         <v>Frankfurt</v>
       </c>
-      <c r="J34" s="175"/>
-      <c r="K34" s="175"/>
+      <c r="J34" s="172"/>
+      <c r="K34" s="172"/>
       <c r="L34" s="71"/>
       <c r="M34" s="72"/>
       <c r="O34" s="43" t="str">
@@ -43560,7 +43589,7 @@
         <f>SUM(EP34:ES34)</f>
         <v>0</v>
       </c>
-      <c r="EV34" s="174"/>
+      <c r="EV34" s="175"/>
     </row>
     <row r="35" spans="1:152">
       <c r="A35" s="46">
@@ -43588,12 +43617,12 @@
         <f>BD11</f>
         <v>Hungary</v>
       </c>
-      <c r="I35" s="175" t="str">
+      <c r="I35" s="172" t="str">
         <f>INDEX(T,105,lang)</f>
         <v>Stuttgart</v>
       </c>
-      <c r="J35" s="175"/>
-      <c r="K35" s="175"/>
+      <c r="J35" s="172"/>
+      <c r="K35" s="172"/>
       <c r="L35" s="73"/>
       <c r="M35" s="74"/>
       <c r="O35" s="43" t="str">
@@ -44046,7 +44075,7 @@
         <f>SUM(EP35:ES35)</f>
         <v>0</v>
       </c>
-      <c r="EV35" s="174"/>
+      <c r="EV35" s="175"/>
     </row>
     <row r="36" spans="1:152">
       <c r="A36" s="46">
@@ -44074,12 +44103,12 @@
         <f>BD14</f>
         <v>Spain</v>
       </c>
-      <c r="I36" s="175" t="str">
+      <c r="I36" s="172" t="str">
         <f>INDEX(T,111,lang)</f>
         <v>Düsseldorf</v>
       </c>
-      <c r="J36" s="175"/>
-      <c r="K36" s="175"/>
+      <c r="J36" s="172"/>
+      <c r="K36" s="172"/>
       <c r="L36" s="73"/>
       <c r="M36" s="74"/>
       <c r="O36" s="54" t="str">
@@ -44375,12 +44404,12 @@
         <f>BD15</f>
         <v>Italy</v>
       </c>
-      <c r="I37" s="175" t="str">
+      <c r="I37" s="172" t="str">
         <f>INDEX(T,112,lang)</f>
         <v>Leipzig</v>
       </c>
-      <c r="J37" s="175"/>
-      <c r="K37" s="175"/>
+      <c r="J37" s="172"/>
+      <c r="K37" s="172"/>
       <c r="L37" s="73"/>
       <c r="M37" s="74"/>
       <c r="W37" s="65">
@@ -44532,12 +44561,12 @@
         <f>BD28</f>
         <v>Austria</v>
       </c>
-      <c r="I38" s="175" t="str">
+      <c r="I38" s="172" t="str">
         <f>INDEX(T,107,lang)</f>
         <v>Berlin</v>
       </c>
-      <c r="J38" s="175"/>
-      <c r="K38" s="175"/>
+      <c r="J38" s="172"/>
+      <c r="K38" s="172"/>
       <c r="L38" s="73"/>
       <c r="M38" s="74"/>
       <c r="O38" s="30" t="str">
@@ -44994,7 +45023,7 @@
         <f>SUM(EP38:ES38)</f>
         <v>0</v>
       </c>
-      <c r="EV38" s="174"/>
+      <c r="EV38" s="175"/>
     </row>
     <row r="39" spans="1:152">
       <c r="A39" s="46">
@@ -45022,12 +45051,12 @@
         <f>BD29</f>
         <v>Poland</v>
       </c>
-      <c r="I39" s="175" t="str">
+      <c r="I39" s="172" t="str">
         <f>INDEX(T,108,lang)</f>
         <v>Dortmund</v>
       </c>
-      <c r="J39" s="175"/>
-      <c r="K39" s="175"/>
+      <c r="J39" s="172"/>
+      <c r="K39" s="172"/>
       <c r="L39" s="73"/>
       <c r="M39" s="74"/>
       <c r="O39" s="32" t="str">
@@ -45484,7 +45513,7 @@
         <f>SUM(EP39:ES39)</f>
         <v>0</v>
       </c>
-      <c r="EV39" s="174"/>
+      <c r="EV39" s="175"/>
     </row>
     <row r="40" spans="1:152">
       <c r="A40" s="46">
@@ -45512,12 +45541,12 @@
         <f>BD23</f>
         <v>Slovenia</v>
       </c>
-      <c r="I40" s="175" t="str">
+      <c r="I40" s="172" t="str">
         <f>INDEX(T,104,lang)</f>
         <v>Cologne</v>
       </c>
-      <c r="J40" s="175"/>
-      <c r="K40" s="175"/>
+      <c r="J40" s="172"/>
+      <c r="K40" s="172"/>
       <c r="L40" s="73"/>
       <c r="M40" s="74"/>
       <c r="O40" s="43" t="str">
@@ -46002,12 +46031,12 @@
         <f>BD22</f>
         <v>Serbia</v>
       </c>
-      <c r="I41" s="175" t="str">
+      <c r="I41" s="172" t="str">
         <f>INDEX(T,103,lang)</f>
         <v>Munich</v>
       </c>
-      <c r="J41" s="175"/>
-      <c r="K41" s="175"/>
+      <c r="J41" s="172"/>
+      <c r="K41" s="172"/>
       <c r="L41" s="73"/>
       <c r="M41" s="74"/>
       <c r="O41" s="43" t="str">
@@ -46487,12 +46516,12 @@
         <f>BD34</f>
         <v>Romania</v>
       </c>
-      <c r="I42" s="175" t="str">
+      <c r="I42" s="172" t="str">
         <f>INDEX(T,106,lang)</f>
         <v>Frankfurt</v>
       </c>
-      <c r="J42" s="175"/>
-      <c r="K42" s="175"/>
+      <c r="J42" s="172"/>
+      <c r="K42" s="172"/>
       <c r="L42" s="73"/>
       <c r="M42" s="74"/>
       <c r="O42" s="54" t="str">
@@ -46788,12 +46817,12 @@
         <f>BD32</f>
         <v>Belgium</v>
       </c>
-      <c r="I43" s="175" t="str">
+      <c r="I43" s="172" t="str">
         <f>INDEX(T,105,lang)</f>
         <v>Stuttgart</v>
       </c>
-      <c r="J43" s="175"/>
-      <c r="K43" s="175"/>
+      <c r="J43" s="172"/>
+      <c r="K43" s="172"/>
       <c r="L43" s="73"/>
       <c r="M43" s="74"/>
       <c r="BJ43" s="65">
@@ -46831,12 +46860,12 @@
         <f>BD38</f>
         <v>Portugal</v>
       </c>
-      <c r="I44" s="175" t="str">
+      <c r="I44" s="172" t="str">
         <f>INDEX(T,110,lang)</f>
         <v>Gelsenkirchen</v>
       </c>
-      <c r="J44" s="175"/>
-      <c r="K44" s="175"/>
+      <c r="J44" s="172"/>
+      <c r="K44" s="172"/>
       <c r="L44" s="73"/>
       <c r="M44" s="74"/>
       <c r="O44" s="166"/>
@@ -46933,12 +46962,12 @@
         <f>BD39</f>
         <v>Turkey</v>
       </c>
-      <c r="I45" s="179" t="str">
+      <c r="I45" s="173" t="str">
         <f>INDEX(T,109,lang)</f>
         <v>Hamburg</v>
       </c>
-      <c r="J45" s="179"/>
-      <c r="K45" s="179"/>
+      <c r="J45" s="173"/>
+      <c r="K45" s="173"/>
       <c r="L45" s="75"/>
       <c r="M45" s="76"/>
       <c r="O45" s="167"/>
@@ -47500,13 +47529,13 @@
       <c r="L52" s="20"/>
       <c r="M52" s="20"/>
       <c r="N52" s="20"/>
-      <c r="O52" s="180"/>
-      <c r="P52" s="180"/>
-      <c r="Q52" s="180"/>
-      <c r="R52" s="180"/>
-      <c r="S52" s="180"/>
-      <c r="T52" s="180"/>
-      <c r="U52" s="180"/>
+      <c r="O52" s="174"/>
+      <c r="P52" s="174"/>
+      <c r="Q52" s="174"/>
+      <c r="R52" s="174"/>
+      <c r="S52" s="174"/>
+      <c r="T52" s="174"/>
+      <c r="U52" s="174"/>
       <c r="W52" s="65">
         <f>DATE(2024,7,2)+TIME(8,0,0)+gmt_delta</f>
         <v>45475.666666666672</v>
@@ -47548,13 +47577,13 @@
       <c r="L53" s="20"/>
       <c r="M53" s="20"/>
       <c r="N53" s="20"/>
-      <c r="O53" s="180"/>
-      <c r="P53" s="180"/>
-      <c r="Q53" s="180"/>
-      <c r="R53" s="180"/>
-      <c r="S53" s="180"/>
-      <c r="T53" s="180"/>
-      <c r="U53" s="180"/>
+      <c r="O53" s="174"/>
+      <c r="P53" s="174"/>
+      <c r="Q53" s="174"/>
+      <c r="R53" s="174"/>
+      <c r="S53" s="174"/>
+      <c r="T53" s="174"/>
+      <c r="U53" s="174"/>
       <c r="W53" s="65">
         <f>DATE(2024,7,2)+TIME(5,0,0)+gmt_delta</f>
         <v>45475.541666666672</v>
@@ -48220,6 +48249,48 @@
   </sheetData>
   <sheetProtection password="B93B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="49">
+    <mergeCell ref="A8:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="EV10:EV11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="EV6:EV7"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="EV14:EV15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="EV18:EV19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="EV22:EV23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="EV26:EV27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="EV30:EV31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="EV34:EV35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="EV38:EV39"/>
+    <mergeCell ref="I39:K39"/>
     <mergeCell ref="I43:K43"/>
     <mergeCell ref="I44:K44"/>
     <mergeCell ref="I45:K45"/>
@@ -48227,48 +48298,6 @@
     <mergeCell ref="I40:K40"/>
     <mergeCell ref="I41:K41"/>
     <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="EV38:EV39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="EV34:EV35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="EV30:EV31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="EV26:EV27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="EV22:EV23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="EV18:EV19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="EV14:EV15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="A8:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="EV10:EV11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="EV6:EV7"/>
   </mergeCells>
   <conditionalFormatting sqref="E10:E45">
     <cfRule type="expression" dxfId="8" priority="4">
@@ -49171,25 +49200,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="38.25" customHeight="1">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="191" t="s">
         <v>2889</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="192"/>
+      <c r="P1" s="192"/>
+      <c r="Q1" s="192"/>
       <c r="R1" s="112"/>
       <c r="S1" s="113"/>
       <c r="T1" s="114"/>
@@ -49296,20 +49325,20 @@
       <c r="A4" s="160" t="s">
         <v>2894</v>
       </c>
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="181" t="s">
         <v>2895</v>
       </c>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="182"/>
-      <c r="J4" s="183"/>
-      <c r="K4" s="188"/>
-      <c r="L4" s="188"/>
-      <c r="M4" s="184"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="190"/>
+      <c r="J4" s="186"/>
+      <c r="K4" s="189"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="187"/>
       <c r="N4" s="127"/>
       <c r="O4" s="128"/>
       <c r="P4" s="128"/>
@@ -49441,19 +49470,19 @@
       <c r="A6" s="160" t="s">
         <v>2900</v>
       </c>
-      <c r="B6" s="187" t="s">
+      <c r="B6" s="181" t="s">
         <v>2901</v>
       </c>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="188"/>
-      <c r="L6" s="184"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="189"/>
+      <c r="L6" s="187"/>
       <c r="M6" s="127"/>
       <c r="N6" s="134"/>
       <c r="O6" s="128"/>
@@ -49585,17 +49614,17 @@
       <c r="A8" s="160" t="s">
         <v>2904</v>
       </c>
-      <c r="B8" s="181" t="s">
+      <c r="B8" s="185" t="s">
         <v>2905</v>
       </c>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="181"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="184"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="187"/>
       <c r="K8" s="137"/>
       <c r="L8" s="137"/>
       <c r="M8" s="137"/>
@@ -49729,19 +49758,19 @@
       <c r="A10" s="160" t="s">
         <v>2908</v>
       </c>
-      <c r="B10" s="189" t="s">
+      <c r="B10" s="188" t="s">
         <v>2909</v>
       </c>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="188"/>
-      <c r="L10" s="184"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="188"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="187"/>
       <c r="M10" s="128"/>
       <c r="N10" s="128"/>
       <c r="O10" s="128"/>
@@ -49873,16 +49902,16 @@
       <c r="A12" s="160" t="s">
         <v>2912</v>
       </c>
-      <c r="B12" s="181" t="s">
+      <c r="B12" s="185" t="s">
         <v>2913</v>
       </c>
-      <c r="C12" s="181"/>
-      <c r="D12" s="181"/>
-      <c r="E12" s="181"/>
-      <c r="F12" s="181"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="181"/>
-      <c r="I12" s="181"/>
+      <c r="C12" s="185"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
       <c r="J12" s="140"/>
       <c r="K12" s="141"/>
       <c r="L12" s="141"/>
@@ -50014,20 +50043,20 @@
       <c r="A14" s="160" t="s">
         <v>2915</v>
       </c>
-      <c r="B14" s="181" t="s">
+      <c r="B14" s="185" t="s">
         <v>2916</v>
       </c>
-      <c r="C14" s="181"/>
-      <c r="D14" s="181"/>
-      <c r="E14" s="181"/>
-      <c r="F14" s="181"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="181"/>
-      <c r="I14" s="181"/>
+      <c r="C14" s="185"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="185"/>
       <c r="J14" s="128"/>
-      <c r="K14" s="183"/>
-      <c r="L14" s="188"/>
-      <c r="M14" s="184"/>
+      <c r="K14" s="186"/>
+      <c r="L14" s="189"/>
+      <c r="M14" s="187"/>
       <c r="N14" s="137"/>
       <c r="O14" s="134"/>
       <c r="P14" s="134"/>
@@ -50153,20 +50182,20 @@
       <c r="A16" s="160" t="s">
         <v>2917</v>
       </c>
-      <c r="B16" s="181" t="s">
+      <c r="B16" s="185" t="s">
         <v>2918</v>
       </c>
-      <c r="C16" s="181"/>
-      <c r="D16" s="181"/>
-      <c r="E16" s="181"/>
-      <c r="F16" s="181"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="181"/>
-      <c r="J16" s="181"/>
-      <c r="K16" s="183"/>
-      <c r="L16" s="188"/>
-      <c r="M16" s="184"/>
+      <c r="C16" s="185"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="186"/>
+      <c r="L16" s="189"/>
+      <c r="M16" s="187"/>
       <c r="N16" s="145"/>
       <c r="O16" s="137"/>
       <c r="P16" s="137"/>
@@ -50293,13 +50322,13 @@
       <c r="A18" s="160" t="s">
         <v>2919</v>
       </c>
-      <c r="B18" s="187" t="s">
+      <c r="B18" s="181" t="s">
         <v>2920</v>
       </c>
-      <c r="C18" s="187"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="181"/>
+      <c r="F18" s="181"/>
       <c r="G18" s="140"/>
       <c r="H18" s="131"/>
       <c r="I18" s="148"/>
@@ -50433,14 +50462,14 @@
       <c r="A20" s="160" t="s">
         <v>2921</v>
       </c>
-      <c r="B20" s="187" t="s">
+      <c r="B20" s="181" t="s">
         <v>2922</v>
       </c>
-      <c r="C20" s="187"/>
-      <c r="D20" s="187"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="187"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="181"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="181"/>
       <c r="H20" s="140"/>
       <c r="I20" s="148"/>
       <c r="J20" s="148"/>
@@ -50573,18 +50602,18 @@
       <c r="A22" s="160">
         <v>10</v>
       </c>
-      <c r="B22" s="187" t="s">
+      <c r="B22" s="181" t="s">
         <v>2923</v>
       </c>
-      <c r="C22" s="187"/>
-      <c r="D22" s="187"/>
-      <c r="E22" s="187"/>
-      <c r="F22" s="187"/>
-      <c r="G22" s="187"/>
-      <c r="H22" s="187"/>
-      <c r="I22" s="187"/>
-      <c r="J22" s="183"/>
-      <c r="K22" s="184"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="186"/>
+      <c r="K22" s="187"/>
       <c r="L22" s="128"/>
       <c r="M22" s="128"/>
       <c r="N22" s="128"/>
@@ -50713,17 +50742,17 @@
       <c r="A24" s="160" t="s">
         <v>2924</v>
       </c>
-      <c r="B24" s="187" t="s">
+      <c r="B24" s="181" t="s">
         <v>2925</v>
       </c>
-      <c r="C24" s="187"/>
-      <c r="D24" s="187"/>
-      <c r="E24" s="187"/>
-      <c r="F24" s="187"/>
-      <c r="G24" s="187"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="187"/>
-      <c r="J24" s="187"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="181"/>
       <c r="K24" s="153"/>
       <c r="L24" s="154"/>
       <c r="M24" s="128"/>
@@ -50853,15 +50882,15 @@
       <c r="A26" s="160" t="s">
         <v>2926</v>
       </c>
-      <c r="B26" s="187" t="s">
+      <c r="B26" s="181" t="s">
         <v>2927</v>
       </c>
-      <c r="C26" s="187"/>
-      <c r="D26" s="187"/>
-      <c r="E26" s="187"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="187"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="181"/>
+      <c r="F26" s="181"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="181"/>
       <c r="I26" s="140"/>
       <c r="J26" s="128"/>
       <c r="K26" s="128"/>
@@ -50987,16 +51016,16 @@
       <c r="A28" s="160" t="s">
         <v>2928</v>
       </c>
-      <c r="B28" s="187" t="s">
+      <c r="B28" s="181" t="s">
         <v>2929</v>
       </c>
-      <c r="C28" s="187"/>
-      <c r="D28" s="187"/>
-      <c r="E28" s="187"/>
-      <c r="F28" s="187"/>
-      <c r="G28" s="187"/>
-      <c r="H28" s="187"/>
-      <c r="I28" s="187"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="181"/>
       <c r="J28" s="156"/>
       <c r="K28" s="128"/>
       <c r="L28" s="128"/>
@@ -51077,15 +51106,15 @@
       <c r="A30" s="160" t="s">
         <v>2930</v>
       </c>
-      <c r="B30" s="187" t="s">
+      <c r="B30" s="181" t="s">
         <v>2931</v>
       </c>
-      <c r="C30" s="187"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="187"/>
-      <c r="F30" s="187"/>
-      <c r="G30" s="187"/>
-      <c r="H30" s="187"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="181"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="181"/>
       <c r="I30" s="140"/>
       <c r="J30" s="128"/>
       <c r="K30" s="128"/>
@@ -51165,14 +51194,14 @@
       <c r="A32" s="160" t="s">
         <v>2932</v>
       </c>
-      <c r="B32" s="187" t="s">
+      <c r="B32" s="181" t="s">
         <v>2933</v>
       </c>
-      <c r="C32" s="187"/>
-      <c r="D32" s="187"/>
-      <c r="E32" s="187"/>
-      <c r="F32" s="187"/>
-      <c r="G32" s="187"/>
+      <c r="C32" s="181"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="181"/>
+      <c r="F32" s="181"/>
+      <c r="G32" s="181"/>
       <c r="H32" s="140"/>
       <c r="I32" s="128"/>
       <c r="J32" s="128"/>
@@ -51253,14 +51282,14 @@
       <c r="A34" s="160" t="s">
         <v>2934</v>
       </c>
-      <c r="B34" s="187" t="s">
+      <c r="B34" s="181" t="s">
         <v>2935</v>
       </c>
-      <c r="C34" s="181"/>
-      <c r="D34" s="181"/>
-      <c r="E34" s="181"/>
-      <c r="F34" s="181"/>
-      <c r="G34" s="181"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="185"/>
+      <c r="E34" s="185"/>
+      <c r="F34" s="185"/>
+      <c r="G34" s="185"/>
       <c r="H34" s="157"/>
       <c r="I34" s="154"/>
       <c r="J34" s="134"/>
@@ -51341,17 +51370,17 @@
       <c r="A36" s="160" t="s">
         <v>2936</v>
       </c>
-      <c r="B36" s="187" t="s">
+      <c r="B36" s="181" t="s">
         <v>2937</v>
       </c>
-      <c r="C36" s="187"/>
-      <c r="D36" s="187"/>
-      <c r="E36" s="187"/>
-      <c r="F36" s="187"/>
-      <c r="G36" s="187"/>
-      <c r="H36" s="187"/>
-      <c r="I36" s="183"/>
-      <c r="J36" s="184"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="181"/>
+      <c r="E36" s="181"/>
+      <c r="F36" s="181"/>
+      <c r="G36" s="181"/>
+      <c r="H36" s="181"/>
+      <c r="I36" s="186"/>
+      <c r="J36" s="187"/>
       <c r="K36" s="133"/>
       <c r="L36" s="133"/>
       <c r="M36" s="133"/>
@@ -51417,20 +51446,20 @@
       <c r="A38" s="160" t="s">
         <v>2938</v>
       </c>
-      <c r="B38" s="187" t="s">
+      <c r="B38" s="181" t="s">
         <v>2943</v>
       </c>
-      <c r="C38" s="187"/>
-      <c r="D38" s="187"/>
-      <c r="E38" s="187"/>
-      <c r="F38" s="187"/>
-      <c r="G38" s="187"/>
-      <c r="H38" s="187"/>
-      <c r="I38" s="187"/>
-      <c r="J38" s="187"/>
-      <c r="K38" s="190"/>
-      <c r="L38" s="191"/>
-      <c r="M38" s="192"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="181"/>
+      <c r="E38" s="181"/>
+      <c r="F38" s="181"/>
+      <c r="G38" s="181"/>
+      <c r="H38" s="181"/>
+      <c r="I38" s="181"/>
+      <c r="J38" s="181"/>
+      <c r="K38" s="182"/>
+      <c r="L38" s="183"/>
+      <c r="M38" s="184"/>
       <c r="N38" s="133"/>
       <c r="O38" s="133"/>
       <c r="P38" s="133"/>
@@ -51493,17 +51522,17 @@
       <c r="A40" s="160" t="s">
         <v>2939</v>
       </c>
-      <c r="B40" s="187" t="s">
+      <c r="B40" s="181" t="s">
         <v>2940</v>
       </c>
-      <c r="C40" s="187"/>
-      <c r="D40" s="187"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="187"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="190"/>
-      <c r="I40" s="191"/>
-      <c r="J40" s="192"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="181"/>
+      <c r="E40" s="181"/>
+      <c r="F40" s="181"/>
+      <c r="G40" s="181"/>
+      <c r="H40" s="182"/>
+      <c r="I40" s="183"/>
+      <c r="J40" s="184"/>
       <c r="K40" s="133"/>
       <c r="L40" s="133"/>
       <c r="M40" s="133"/>
@@ -51561,16 +51590,16 @@
       <c r="A42" s="160" t="s">
         <v>2941</v>
       </c>
-      <c r="B42" s="187" t="s">
+      <c r="B42" s="181" t="s">
         <v>2942</v>
       </c>
-      <c r="C42" s="187"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="187"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="191"/>
-      <c r="I42" s="192"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="181"/>
+      <c r="E42" s="181"/>
+      <c r="F42" s="181"/>
+      <c r="G42" s="182"/>
+      <c r="H42" s="183"/>
+      <c r="I42" s="184"/>
       <c r="J42" s="133"/>
       <c r="K42" s="133"/>
       <c r="L42" s="133"/>
@@ -53641,18 +53670,13 @@
     <sortCondition ref="Y4"/>
   </sortState>
   <mergeCells count="32">
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="I6:L6"/>
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="I10:L10"/>
@@ -53666,13 +53690,18 @@
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="G42:I42"/>
   </mergeCells>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H34 JD34 SZ34 ACV34 AMR34 AWN34 BGJ34 BQF34 CAB34 CJX34 CTT34 DDP34 DNL34 DXH34 EHD34 EQZ34 FAV34 FKR34 FUN34 GEJ34 GOF34 GYB34 HHX34 HRT34 IBP34 ILL34 IVH34 JFD34 JOZ34 JYV34 KIR34 KSN34 LCJ34 LMF34 LWB34 MFX34 MPT34 MZP34 NJL34 NTH34 ODD34 OMZ34 OWV34 PGR34 PQN34 QAJ34 QKF34 QUB34 RDX34 RNT34 RXP34 SHL34 SRH34 TBD34 TKZ34 TUV34 UER34 UON34 UYJ34 VIF34 VSB34 WBX34 WLT34 WVP34 H65570 JD65570 SZ65570 ACV65570 AMR65570 AWN65570 BGJ65570 BQF65570 CAB65570 CJX65570 CTT65570 DDP65570 DNL65570 DXH65570 EHD65570 EQZ65570 FAV65570 FKR65570 FUN65570 GEJ65570 GOF65570 GYB65570 HHX65570 HRT65570 IBP65570 ILL65570 IVH65570 JFD65570 JOZ65570 JYV65570 KIR65570 KSN65570 LCJ65570 LMF65570 LWB65570 MFX65570 MPT65570 MZP65570 NJL65570 NTH65570 ODD65570 OMZ65570 OWV65570 PGR65570 PQN65570 QAJ65570 QKF65570 QUB65570 RDX65570 RNT65570 RXP65570 SHL65570 SRH65570 TBD65570 TKZ65570 TUV65570 UER65570 UON65570 UYJ65570 VIF65570 VSB65570 WBX65570 WLT65570 WVP65570 H131106 JD131106 SZ131106 ACV131106 AMR131106 AWN131106 BGJ131106 BQF131106 CAB131106 CJX131106 CTT131106 DDP131106 DNL131106 DXH131106 EHD131106 EQZ131106 FAV131106 FKR131106 FUN131106 GEJ131106 GOF131106 GYB131106 HHX131106 HRT131106 IBP131106 ILL131106 IVH131106 JFD131106 JOZ131106 JYV131106 KIR131106 KSN131106 LCJ131106 LMF131106 LWB131106 MFX131106 MPT131106 MZP131106 NJL131106 NTH131106 ODD131106 OMZ131106 OWV131106 PGR131106 PQN131106 QAJ131106 QKF131106 QUB131106 RDX131106 RNT131106 RXP131106 SHL131106 SRH131106 TBD131106 TKZ131106 TUV131106 UER131106 UON131106 UYJ131106 VIF131106 VSB131106 WBX131106 WLT131106 WVP131106 H196642 JD196642 SZ196642 ACV196642 AMR196642 AWN196642 BGJ196642 BQF196642 CAB196642 CJX196642 CTT196642 DDP196642 DNL196642 DXH196642 EHD196642 EQZ196642 FAV196642 FKR196642 FUN196642 GEJ196642 GOF196642 GYB196642 HHX196642 HRT196642 IBP196642 ILL196642 IVH196642 JFD196642 JOZ196642 JYV196642 KIR196642 KSN196642 LCJ196642 LMF196642 LWB196642 MFX196642 MPT196642 MZP196642 NJL196642 NTH196642 ODD196642 OMZ196642 OWV196642 PGR196642 PQN196642 QAJ196642 QKF196642 QUB196642 RDX196642 RNT196642 RXP196642 SHL196642 SRH196642 TBD196642 TKZ196642 TUV196642 UER196642 UON196642 UYJ196642 VIF196642 VSB196642 WBX196642 WLT196642 WVP196642 H262178 JD262178 SZ262178 ACV262178 AMR262178 AWN262178 BGJ262178 BQF262178 CAB262178 CJX262178 CTT262178 DDP262178 DNL262178 DXH262178 EHD262178 EQZ262178 FAV262178 FKR262178 FUN262178 GEJ262178 GOF262178 GYB262178 HHX262178 HRT262178 IBP262178 ILL262178 IVH262178 JFD262178 JOZ262178 JYV262178 KIR262178 KSN262178 LCJ262178 LMF262178 LWB262178 MFX262178 MPT262178 MZP262178 NJL262178 NTH262178 ODD262178 OMZ262178 OWV262178 PGR262178 PQN262178 QAJ262178 QKF262178 QUB262178 RDX262178 RNT262178 RXP262178 SHL262178 SRH262178 TBD262178 TKZ262178 TUV262178 UER262178 UON262178 UYJ262178 VIF262178 VSB262178 WBX262178 WLT262178 WVP262178 H327714 JD327714 SZ327714 ACV327714 AMR327714 AWN327714 BGJ327714 BQF327714 CAB327714 CJX327714 CTT327714 DDP327714 DNL327714 DXH327714 EHD327714 EQZ327714 FAV327714 FKR327714 FUN327714 GEJ327714 GOF327714 GYB327714 HHX327714 HRT327714 IBP327714 ILL327714 IVH327714 JFD327714 JOZ327714 JYV327714 KIR327714 KSN327714 LCJ327714 LMF327714 LWB327714 MFX327714 MPT327714 MZP327714 NJL327714 NTH327714 ODD327714 OMZ327714 OWV327714 PGR327714 PQN327714 QAJ327714 QKF327714 QUB327714 RDX327714 RNT327714 RXP327714 SHL327714 SRH327714 TBD327714 TKZ327714 TUV327714 UER327714 UON327714 UYJ327714 VIF327714 VSB327714 WBX327714 WLT327714 WVP327714 H393250 JD393250 SZ393250 ACV393250 AMR393250 AWN393250 BGJ393250 BQF393250 CAB393250 CJX393250 CTT393250 DDP393250 DNL393250 DXH393250 EHD393250 EQZ393250 FAV393250 FKR393250 FUN393250 GEJ393250 GOF393250 GYB393250 HHX393250 HRT393250 IBP393250 ILL393250 IVH393250 JFD393250 JOZ393250 JYV393250 KIR393250 KSN393250 LCJ393250 LMF393250 LWB393250 MFX393250 MPT393250 MZP393250 NJL393250 NTH393250 ODD393250 OMZ393250 OWV393250 PGR393250 PQN393250 QAJ393250 QKF393250 QUB393250 RDX393250 RNT393250 RXP393250 SHL393250 SRH393250 TBD393250 TKZ393250 TUV393250 UER393250 UON393250 UYJ393250 VIF393250 VSB393250 WBX393250 WLT393250 WVP393250 H458786 JD458786 SZ458786 ACV458786 AMR458786 AWN458786 BGJ458786 BQF458786 CAB458786 CJX458786 CTT458786 DDP458786 DNL458786 DXH458786 EHD458786 EQZ458786 FAV458786 FKR458786 FUN458786 GEJ458786 GOF458786 GYB458786 HHX458786 HRT458786 IBP458786 ILL458786 IVH458786 JFD458786 JOZ458786 JYV458786 KIR458786 KSN458786 LCJ458786 LMF458786 LWB458786 MFX458786 MPT458786 MZP458786 NJL458786 NTH458786 ODD458786 OMZ458786 OWV458786 PGR458786 PQN458786 QAJ458786 QKF458786 QUB458786 RDX458786 RNT458786 RXP458786 SHL458786 SRH458786 TBD458786 TKZ458786 TUV458786 UER458786 UON458786 UYJ458786 VIF458786 VSB458786 WBX458786 WLT458786 WVP458786 H524322 JD524322 SZ524322 ACV524322 AMR524322 AWN524322 BGJ524322 BQF524322 CAB524322 CJX524322 CTT524322 DDP524322 DNL524322 DXH524322 EHD524322 EQZ524322 FAV524322 FKR524322 FUN524322 GEJ524322 GOF524322 GYB524322 HHX524322 HRT524322 IBP524322 ILL524322 IVH524322 JFD524322 JOZ524322 JYV524322 KIR524322 KSN524322 LCJ524322 LMF524322 LWB524322 MFX524322 MPT524322 MZP524322 NJL524322 NTH524322 ODD524322 OMZ524322 OWV524322 PGR524322 PQN524322 QAJ524322 QKF524322 QUB524322 RDX524322 RNT524322 RXP524322 SHL524322 SRH524322 TBD524322 TKZ524322 TUV524322 UER524322 UON524322 UYJ524322 VIF524322 VSB524322 WBX524322 WLT524322 WVP524322 H589858 JD589858 SZ589858 ACV589858 AMR589858 AWN589858 BGJ589858 BQF589858 CAB589858 CJX589858 CTT589858 DDP589858 DNL589858 DXH589858 EHD589858 EQZ589858 FAV589858 FKR589858 FUN589858 GEJ589858 GOF589858 GYB589858 HHX589858 HRT589858 IBP589858 ILL589858 IVH589858 JFD589858 JOZ589858 JYV589858 KIR589858 KSN589858 LCJ589858 LMF589858 LWB589858 MFX589858 MPT589858 MZP589858 NJL589858 NTH589858 ODD589858 OMZ589858 OWV589858 PGR589858 PQN589858 QAJ589858 QKF589858 QUB589858 RDX589858 RNT589858 RXP589858 SHL589858 SRH589858 TBD589858 TKZ589858 TUV589858 UER589858 UON589858 UYJ589858 VIF589858 VSB589858 WBX589858 WLT589858 WVP589858 H655394 JD655394 SZ655394 ACV655394 AMR655394 AWN655394 BGJ655394 BQF655394 CAB655394 CJX655394 CTT655394 DDP655394 DNL655394 DXH655394 EHD655394 EQZ655394 FAV655394 FKR655394 FUN655394 GEJ655394 GOF655394 GYB655394 HHX655394 HRT655394 IBP655394 ILL655394 IVH655394 JFD655394 JOZ655394 JYV655394 KIR655394 KSN655394 LCJ655394 LMF655394 LWB655394 MFX655394 MPT655394 MZP655394 NJL655394 NTH655394 ODD655394 OMZ655394 OWV655394 PGR655394 PQN655394 QAJ655394 QKF655394 QUB655394 RDX655394 RNT655394 RXP655394 SHL655394 SRH655394 TBD655394 TKZ655394 TUV655394 UER655394 UON655394 UYJ655394 VIF655394 VSB655394 WBX655394 WLT655394 WVP655394 H720930 JD720930 SZ720930 ACV720930 AMR720930 AWN720930 BGJ720930 BQF720930 CAB720930 CJX720930 CTT720930 DDP720930 DNL720930 DXH720930 EHD720930 EQZ720930 FAV720930 FKR720930 FUN720930 GEJ720930 GOF720930 GYB720930 HHX720930 HRT720930 IBP720930 ILL720930 IVH720930 JFD720930 JOZ720930 JYV720930 KIR720930 KSN720930 LCJ720930 LMF720930 LWB720930 MFX720930 MPT720930 MZP720930 NJL720930 NTH720930 ODD720930 OMZ720930 OWV720930 PGR720930 PQN720930 QAJ720930 QKF720930 QUB720930 RDX720930 RNT720930 RXP720930 SHL720930 SRH720930 TBD720930 TKZ720930 TUV720930 UER720930 UON720930 UYJ720930 VIF720930 VSB720930 WBX720930 WLT720930 WVP720930 H786466 JD786466 SZ786466 ACV786466 AMR786466 AWN786466 BGJ786466 BQF786466 CAB786466 CJX786466 CTT786466 DDP786466 DNL786466 DXH786466 EHD786466 EQZ786466 FAV786466 FKR786466 FUN786466 GEJ786466 GOF786466 GYB786466 HHX786466 HRT786466 IBP786466 ILL786466 IVH786466 JFD786466 JOZ786466 JYV786466 KIR786466 KSN786466 LCJ786466 LMF786466 LWB786466 MFX786466 MPT786466 MZP786466 NJL786466 NTH786466 ODD786466 OMZ786466 OWV786466 PGR786466 PQN786466 QAJ786466 QKF786466 QUB786466 RDX786466 RNT786466 RXP786466 SHL786466 SRH786466 TBD786466 TKZ786466 TUV786466 UER786466 UON786466 UYJ786466 VIF786466 VSB786466 WBX786466 WLT786466 WVP786466 H852002 JD852002 SZ852002 ACV852002 AMR852002 AWN852002 BGJ852002 BQF852002 CAB852002 CJX852002 CTT852002 DDP852002 DNL852002 DXH852002 EHD852002 EQZ852002 FAV852002 FKR852002 FUN852002 GEJ852002 GOF852002 GYB852002 HHX852002 HRT852002 IBP852002 ILL852002 IVH852002 JFD852002 JOZ852002 JYV852002 KIR852002 KSN852002 LCJ852002 LMF852002 LWB852002 MFX852002 MPT852002 MZP852002 NJL852002 NTH852002 ODD852002 OMZ852002 OWV852002 PGR852002 PQN852002 QAJ852002 QKF852002 QUB852002 RDX852002 RNT852002 RXP852002 SHL852002 SRH852002 TBD852002 TKZ852002 TUV852002 UER852002 UON852002 UYJ852002 VIF852002 VSB852002 WBX852002 WLT852002 WVP852002 H917538 JD917538 SZ917538 ACV917538 AMR917538 AWN917538 BGJ917538 BQF917538 CAB917538 CJX917538 CTT917538 DDP917538 DNL917538 DXH917538 EHD917538 EQZ917538 FAV917538 FKR917538 FUN917538 GEJ917538 GOF917538 GYB917538 HHX917538 HRT917538 IBP917538 ILL917538 IVH917538 JFD917538 JOZ917538 JYV917538 KIR917538 KSN917538 LCJ917538 LMF917538 LWB917538 MFX917538 MPT917538 MZP917538 NJL917538 NTH917538 ODD917538 OMZ917538 OWV917538 PGR917538 PQN917538 QAJ917538 QKF917538 QUB917538 RDX917538 RNT917538 RXP917538 SHL917538 SRH917538 TBD917538 TKZ917538 TUV917538 UER917538 UON917538 UYJ917538 VIF917538 VSB917538 WBX917538 WLT917538 WVP917538 H983074 JD983074 SZ983074 ACV983074 AMR983074 AWN983074 BGJ983074 BQF983074 CAB983074 CJX983074 CTT983074 DDP983074 DNL983074 DXH983074 EHD983074 EQZ983074 FAV983074 FKR983074 FUN983074 GEJ983074 GOF983074 GYB983074 HHX983074 HRT983074 IBP983074 ILL983074 IVH983074 JFD983074 JOZ983074 JYV983074 KIR983074 KSN983074 LCJ983074 LMF983074 LWB983074 MFX983074 MPT983074 MZP983074 NJL983074 NTH983074 ODD983074 OMZ983074 OWV983074 PGR983074 PQN983074 QAJ983074 QKF983074 QUB983074 RDX983074 RNT983074 RXP983074 SHL983074 SRH983074 TBD983074 TKZ983074 TUV983074 UER983074 UON983074 UYJ983074 VIF983074 VSB983074 WBX983074 WLT983074 WVP983074">
